--- a/GameData/TaroInfo.xlsx
+++ b/GameData/TaroInfo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>weight</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,18 @@
   </si>
   <si>
     <t>maxUseCardNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnforceType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GhostCardType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SealType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -85,15 +97,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -409,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -422,7 +431,7 @@
     <col min="6" max="6" width="15.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -435,10 +444,20 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -451,11 +470,20 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -468,11 +496,20 @@
       <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -485,11 +522,20 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -502,11 +548,20 @@
       <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -519,11 +574,20 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -536,11 +600,20 @@
       <c r="D7" s="1">
         <v>2</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -553,11 +626,20 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -570,11 +652,20 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -587,11 +678,20 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -604,11 +704,20 @@
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -621,11 +730,20 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -638,11 +756,20 @@
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -655,8 +782,20 @@
       <c r="D14" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -669,8 +808,20 @@
       <c r="D15" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -683,8 +834,20 @@
       <c r="D16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -697,8 +860,20 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -711,8 +886,20 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -725,8 +912,20 @@
       <c r="D19" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -739,8 +938,20 @@
       <c r="D20" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -753,8 +964,20 @@
       <c r="D21" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -767,8 +990,20 @@
       <c r="D22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -781,8 +1016,20 @@
       <c r="D23" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -793,6 +1040,18 @@
         <v>0</v>
       </c>
       <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
         <v>0</v>
       </c>
     </row>
